--- a/v0.5_Steady_State_Mapping/Results/v0.5 Torque Curve.xlsx
+++ b/v0.5_Steady_State_Mapping/Results/v0.5 Torque Curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ee2475784414c/Masaüstü/GitHub/Virtual-Engine-Test-Bench/v0.5_Steady_State_Mapping/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED3929B1-066B-438B-B515-B960A48AA6E2}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC10482FA15B70F25BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C059D47D-F242-4C4E-9EBB-69CE470A263C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>RPM</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>PMEP</t>
+  </si>
+  <si>
+    <t>VE</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -110,6 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,7 +201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-GB"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1872,6 +1876,231 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-BDF7-4A9E-B15F-E7511816D212}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>162.585848668653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162.43783457157701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.28027117791601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162.11315848767001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.93649650083799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161.75028521741999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>161.55452463741699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.349214760829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.134355587654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.909947117895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160.67598935154999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>162.26191800897999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>163.85677651851501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165.46084628851099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.074414470351</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.69777410570401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.969994995267</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>171.248868395866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172.826641131222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>174.708157944237</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>176.60329828433501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>178.03953149074701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179.47749866266199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>180.80559919220201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>182.022870546197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>183.240763208564</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>184.15860938079001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185.07533204340999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>185.91533438343001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>186.677961428766</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187.438721926082</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187.671773426751</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>187.89819067229899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>188.002984350774</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>187.98541713144999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>187.96025918110101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187.81175502618299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187.65517501981199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>187.49052894149199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>187.31782665746201</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>187.13707812166101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>187.06535097288699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>186.98612032579501</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>186.89939991057301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>186.80520358055301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>186.70354531358899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>186.59443921346201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>186.47789951130099</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>186.35394056702501</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>186.2225768708</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>186.08382304452101</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>185.45834411817</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>184.82331589523301</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>184.17873837571099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>183.52461155960299</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>182.86093544690999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>182.18771003763101</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>181.504935331767</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>180.81261132931701</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>180.11073803028199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>179.39931543466099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C984-4419-B72F-E714A717BCD0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2071,7 +2300,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-GB"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2747,15 +2976,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>607695</xdr:colOff>
+      <xdr:colOff>607694</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>168592</xdr:rowOff>
+      <xdr:rowOff>172402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>302895</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2781,6 +3010,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3046,10 +3279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,9 +3291,10 @@
     <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3076,8 +3310,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -3093,8 +3330,11 @@
       <c r="E2" s="2">
         <v>169.94408916469499</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="5">
+        <v>162.585848668653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1100</v>
       </c>
@@ -3110,8 +3350,11 @@
       <c r="E3" s="2">
         <v>169.79607506762</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="5">
+        <v>162.43783457157701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1200</v>
       </c>
@@ -3127,8 +3370,11 @@
       <c r="E4" s="2">
         <v>169.63851167395899</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="5">
+        <v>162.28027117791601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1300</v>
       </c>
@@ -3144,8 +3390,11 @@
       <c r="E5" s="2">
         <v>169.47139898371199</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="5">
+        <v>162.11315848767001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1400</v>
       </c>
@@ -3161,8 +3410,11 @@
       <c r="E6" s="2">
         <v>169.29473699688</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="5">
+        <v>161.93649650083799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1500</v>
       </c>
@@ -3178,8 +3430,11 @@
       <c r="E7" s="2">
         <v>169.108525713463</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="5">
+        <v>161.75028521741999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1600</v>
       </c>
@@ -3195,8 +3450,11 @@
       <c r="E8" s="2">
         <v>168.91276513346</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="5">
+        <v>161.55452463741699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1700</v>
       </c>
@@ -3212,8 +3470,11 @@
       <c r="E9" s="2">
         <v>168.70745525687099</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="5">
+        <v>161.349214760829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1800</v>
       </c>
@@ -3229,8 +3490,11 @@
       <c r="E10" s="2">
         <v>168.49259608369701</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="5">
+        <v>161.134355587654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1900</v>
       </c>
@@ -3246,8 +3510,11 @@
       <c r="E11" s="2">
         <v>168.26818761393699</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="5">
+        <v>160.909947117895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
@@ -3263,8 +3530,11 @@
       <c r="E12" s="2">
         <v>168.034229847592</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="5">
+        <v>160.67598935154999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2100</v>
       </c>
@@ -3280,8 +3550,11 @@
       <c r="E13" s="2">
         <v>168.67110571072601</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="5">
+        <v>162.26191800897999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2200</v>
       </c>
@@ -3297,8 +3570,11 @@
       <c r="E14" s="2">
         <v>169.307325034103</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="5">
+        <v>163.85677651851501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2300</v>
       </c>
@@ -3314,8 +3590,11 @@
       <c r="E15" s="2">
         <v>169.94302324041499</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="5">
+        <v>165.46084628851099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2400</v>
       </c>
@@ -3331,8 +3610,11 @@
       <c r="E16" s="2">
         <v>170.57833851608601</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <v>167.074414470351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2500</v>
       </c>
@@ -3348,8 +3630,11 @@
       <c r="E17" s="2">
         <v>171.21341188212801</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="5">
+        <v>168.69777410570401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2600</v>
       </c>
@@ -3365,8 +3650,11 @@
       <c r="E18" s="2">
         <v>171.84838726720699</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <v>169.969994995267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2700</v>
       </c>
@@ -3382,8 +3670,11 @@
       <c r="E19" s="2">
         <v>172.48341158296401</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="5">
+        <v>171.248868395866</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2800</v>
       </c>
@@ -3399,8 +3690,11 @@
       <c r="E20" s="2">
         <v>173.11863480170001</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <v>172.826641131222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2900</v>
       </c>
@@ -3416,8 +3710,11 @@
       <c r="E21" s="2">
         <v>173.754210036497</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="5">
+        <v>174.708157944237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3000</v>
       </c>
@@ -3433,8 +3730,11 @@
       <c r="E22" s="2">
         <v>174.390293623871</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <v>176.60329828433501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3100</v>
       </c>
@@ -3450,8 +3750,11 @@
       <c r="E23" s="2">
         <v>174.63550813058299</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="5">
+        <v>178.03953149074701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3200</v>
       </c>
@@ -3467,8 +3770,11 @@
       <c r="E24" s="2">
         <v>174.87488656868899</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="5">
+        <v>179.47749866266199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3300</v>
       </c>
@@ -3484,8 +3790,11 @@
       <c r="E25" s="2">
         <v>175.10846445259099</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <v>180.80559919220201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3400</v>
       </c>
@@ -3501,8 +3810,11 @@
       <c r="E26" s="2">
         <v>175.33627775103199</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <v>182.022870546197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3500</v>
       </c>
@@ -3518,8 +3830,11 @@
       <c r="E27" s="2">
         <v>175.55836289438699</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <v>183.240763208564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3600</v>
       </c>
@@ -3535,8 +3850,11 @@
       <c r="E28" s="2">
         <v>175.774756782091</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="5">
+        <v>184.15860938079001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3700</v>
       </c>
@@ -3552,8 +3870,11 @@
       <c r="E29" s="2">
         <v>175.98549679021301</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="5">
+        <v>185.07533204340999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3800</v>
       </c>
@@ -3569,8 +3890,11 @@
       <c r="E30" s="2">
         <v>176.190620779178</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="5">
+        <v>185.91533438343001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3900</v>
       </c>
@@ -3586,8 +3910,11 @@
       <c r="E31" s="2">
         <v>176.390167101636</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="5">
+        <v>186.677961428766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4000</v>
       </c>
@@ -3603,8 +3930,11 @@
       <c r="E32" s="2">
         <v>176.584174610492</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="5">
+        <v>187.438721926082</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4100</v>
       </c>
@@ -3620,8 +3950,11 @@
       <c r="E33" s="2">
         <v>176.56456321641599</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="5">
+        <v>187.671773426751</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4200</v>
       </c>
@@ -3637,8 +3970,11 @@
       <c r="E34" s="2">
         <v>176.537214235801</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="5">
+        <v>187.89819067229899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4300</v>
       </c>
@@ -3654,8 +3990,11 @@
       <c r="E35" s="2">
         <v>176.502139561711</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="5">
+        <v>188.002984350774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4400</v>
       </c>
@@ -3671,8 +4010,11 @@
       <c r="E36" s="2">
         <v>176.45935119153299</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="5">
+        <v>187.98541713144999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4500</v>
       </c>
@@ -3688,8 +4030,11 @@
       <c r="E37" s="2">
         <v>176.40886122813001</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="5">
+        <v>187.96025918110101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4600</v>
       </c>
@@ -3705,8 +4050,11 @@
       <c r="E38" s="2">
         <v>176.35068188099399</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="5">
+        <v>187.81175502618299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4700</v>
       </c>
@@ -3722,8 +4070,11 @@
       <c r="E39" s="2">
         <v>176.28482546742799</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="5">
+        <v>187.65517501981199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4800</v>
       </c>
@@ -3739,8 +4090,11 @@
       <c r="E40" s="2">
         <v>176.21130441374001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="5">
+        <v>187.49052894149199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4900</v>
       </c>
@@ -3756,8 +4110,11 @@
       <c r="E41" s="2">
         <v>176.13013125644699</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="5">
+        <v>187.31782665746201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5000</v>
       </c>
@@ -3773,8 +4130,11 @@
       <c r="E42" s="2">
         <v>176.041318643501</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="5">
+        <v>187.13707812166101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5100</v>
       </c>
@@ -3790,8 +4150,11 @@
       <c r="E43" s="2">
         <v>175.94487933553401</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="5">
+        <v>187.06535097288699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>5200</v>
       </c>
@@ -3807,8 +4170,11 @@
       <c r="E44" s="2">
         <v>175.84082620710799</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="5">
+        <v>186.98612032579501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5300</v>
       </c>
@@ -3824,8 +4190,11 @@
       <c r="E45" s="2">
         <v>175.72917224799701</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="5">
+        <v>186.89939991057301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>5400</v>
       </c>
@@ -3841,8 +4210,11 @@
       <c r="E46" s="2">
         <v>175.60993056447299</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="5">
+        <v>186.80520358055301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>5500</v>
       </c>
@@ -3858,8 +4230,11 @@
       <c r="E47" s="2">
         <v>175.48311438061799</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="5">
+        <v>186.70354531358899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5600</v>
       </c>
@@ -3875,8 +4250,11 @@
       <c r="E48" s="2">
         <v>175.34873703965101</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="5">
+        <v>186.59443921346201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5700</v>
       </c>
@@ -3892,8 +4270,11 @@
       <c r="E49" s="2">
         <v>175.20681200527</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="5">
+        <v>186.47789951130099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>5800</v>
       </c>
@@ -3909,8 +4290,11 @@
       <c r="E50" s="2">
         <v>175.057352863017</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="5">
+        <v>186.35394056702501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>5900</v>
       </c>
@@ -3926,8 +4310,11 @@
       <c r="E51" s="2">
         <v>174.90037332165801</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="5">
+        <v>186.2225768708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>6000</v>
       </c>
@@ -3943,8 +4330,11 @@
       <c r="E52" s="2">
         <v>174.73588721458501</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="5">
+        <v>186.08382304452101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>6100</v>
       </c>
@@ -3960,8 +4350,11 @@
       <c r="E53" s="2">
         <v>174.110408288234</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="5">
+        <v>185.45834411817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>6200</v>
       </c>
@@ -3977,8 +4370,11 @@
       <c r="E54" s="2">
         <v>173.475380065297</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="5">
+        <v>184.82331589523301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>6300</v>
       </c>
@@ -3994,8 +4390,11 @@
       <c r="E55" s="2">
         <v>172.83080254577499</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="5">
+        <v>184.17873837571099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>6400</v>
       </c>
@@ -4011,8 +4410,11 @@
       <c r="E56" s="2">
         <v>172.17667572966701</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="5">
+        <v>183.52461155960299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6500</v>
       </c>
@@ -4028,8 +4430,11 @@
       <c r="E57" s="2">
         <v>171.51299961697401</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="5">
+        <v>182.86093544690999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>6600</v>
       </c>
@@ -4045,8 +4450,11 @@
       <c r="E58" s="2">
         <v>170.839774207696</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="5">
+        <v>182.18771003763101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>6700</v>
       </c>
@@ -4062,8 +4470,11 @@
       <c r="E59" s="2">
         <v>170.156999501831</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="5">
+        <v>181.504935331767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>6800</v>
       </c>
@@ -4079,8 +4490,11 @@
       <c r="E60" s="2">
         <v>169.464675499382</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="5">
+        <v>180.81261132931701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>6900</v>
       </c>
@@ -4096,8 +4510,11 @@
       <c r="E61" s="2">
         <v>168.76280220034599</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="5">
+        <v>180.11073803028199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>7000</v>
       </c>
@@ -4112,6 +4529,9 @@
       </c>
       <c r="E62" s="2">
         <v>168.05137960472501</v>
+      </c>
+      <c r="F62" s="5">
+        <v>179.39931543466099</v>
       </c>
     </row>
   </sheetData>
